--- a/public/preprocessing/@abdurarsyad.xlsx
+++ b/public/preprocessing/@abdurarsyad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19235</v>
+        <v>32072</v>
       </c>
       <c r="C2" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>belum nonton lagi lagi sibuk kerokin istri</t>
+          <t>rt eps monologue kali ini bersama wapres kita yang lagi wangi di dunia penulisan script link</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['belum', 'nonton', 'lagi', 'lagi', 'sibuk', 'kerokin', 'istri']</t>
+          <t>['rt', 'eps', 'monologue', 'kali', 'ini', 'bersama', 'wapres', 'kita', 'yang', 'lagi', 'wangi', 'di', 'dunia', 'penulisan', 'script', 'link']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'episode', 'monologue', 'kali', 'ini', 'bersama', 'wakil, presiden', 'kita', 'yang', 'lagi', 'wangi', 'di', 'dunia', 'penulisan', 'script', 'link']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['nonton', 'sibuk', 'kerokin', 'istri']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['nonton', 'sibuk', 'kerokin', 'istri']</t>
+          <t>['episode', 'monologue', 'kali', 'wakil, presiden', 'wangi', 'dunia', 'penulisan', 'script', 'link']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['episode', 'monologue', 'kali', 'wakil presiden', 'wangi', 'dunia', 'tulis', 'script', 'link']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19236</v>
+        <v>32073</v>
       </c>
       <c r="C3" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>dia kayak ngerti ngerti aja orang ngomong rispek</t>
+          <t>afwan semoga segera dibangun pesantren di sana aamiin</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['dia', 'kayak', 'ngerti', 'ngerti', 'aja', 'orang', 'ngomong', 'rispek']</t>
+          <t>['afwan', 'semoga', 'segera', 'dibangun', 'pesantren', 'di', 'sana', 'aamiin']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['afwan', 'semoga', 'segera', 'dibangun', 'pesantren', 'di', 'sana', 'amin']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['kayak', 'ngerti', 'ngerti', 'orang', 'ngomong', 'rispek']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['kayak', 'ngerti', 'ngerti', 'orang', 'ngomong', 'rispek']</t>
+          <t>['afwan', 'semoga', 'dibangun', 'pesantren', 'amin']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['afwan', 'moga', 'bangun', 'pesantren', 'amin']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19237</v>
+        <v>32074</v>
       </c>
       <c r="C4" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rt uwenak suarane pace ini memang kalo urusan merdu seng ada lawan bosss</t>
+          <t>rt bantu kabarkan keseluruh pecinta kopi diindonesia yak dikirim langsung dari gayo aceh dm atau wa di</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt', 'uwenak', 'suarane', 'pace', 'ini', 'memang', 'kalo', 'urusan', 'merdu', 'seng', 'ada', 'lawan', 'bosss']</t>
+          <t>['rt', 'bantu', 'kabarkan', 'keseluruh', 'pecinta', 'kopi', 'diindonesia', 'yak', 'dikirim', 'langsung', 'dari', 'gayo', 'aceh', 'dm', 'atau', 'wa', 'di']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'bantu', 'kabarkan', 'keseluruh', 'pencinta', 'kopi', 'di, indonesia', 'ya', 'dikirim', 'langsung', 'dari', 'gayo', 'aceh', 'direct, message', 'atau', 'wa', 'di']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['uwenak', 'suarane', 'pace', 'urusan', 'merdu', 'seng', 'lawan', 'bosss']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['uwenak', 'suarane', 'pace', 'urus', 'merdu', 'seng', 'lawan', 'bosss']</t>
+          <t>['bantu', 'kabarkan', 'keseluruh', 'pencinta', 'kopi', 'di, indonesia', 'dikirim', 'langsung', 'gayo', 'aceh', 'direct, message', 'wa']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['bantu', 'kabar', 'seluruh', 'cinta', 'kopi', 'di indonesia', 'kirim', 'langsung', 'gayo', 'aceh', 'direct message', 'wa']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19238</v>
+        <v>32075</v>
       </c>
       <c r="C5" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rt tgl februari silam ulama legendaris ini lahir bernama lengkap haji abdul malik karim amrullah ia dikenal sbg buya</t>
+          <t xml:space="preserve">rt arabika luwak liar dan arabika biasa kopi gayo yang menjadi perhatian dunia kopi yg paling spesial di asia kopi menjadi </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rt', 'tgl', 'februari', 'silam', 'ulama', 'legendaris', 'ini', 'lahir', 'bernama', 'lengkap', 'haji', 'abdul', 'malik', 'karim', 'amrullah', 'ia', 'dikenal', 'sbg', 'buya']</t>
+          <t>['rt', 'arabika', 'luwak', 'liar', 'dan', 'arabika', 'biasa', 'kopi', 'gayo', 'yang', 'menjadi', 'perhatian', 'dunia', 'kopi', 'yg', 'paling', 'spesial', 'di', 'asia', 'kopi', 'menjadi']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'arabika', 'luwak', 'liar', 'dan', 'arabika', 'biasa', 'kopi', 'gayo', 'yang', 'menjadi', 'perhatian', 'dunia', 'kopi', 'yang', 'paling', 'spesial', 'di', 'asia', 'kopi', 'menjadi']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['tgl', 'februari', 'silam', 'ulama', 'legendaris', 'lahir', 'bernama', 'lengkap', 'haji', 'abdul', 'malik', 'karim', 'amrullah', 'dikenal', 'sbg', 'buya']</t>
+          <t>&lt;FreqDist with 16 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['tgl', 'februari', 'silam', 'ulama', 'legendaris', 'lahir', 'nama', 'lengkap', 'haji', 'abdul', 'malik', 'karim', 'amrullah', 'kenal', 'sbg', 'buya']</t>
+          <t>['arabika', 'luwak', 'liar', 'arabika', 'kopi', 'gayo', 'perhatian', 'dunia', 'kopi', 'spesial', 'asia', 'kopi']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['arabika', 'luwak', 'liar', 'arabika', 'kopi', 'gayo', 'perhati', 'dunia', 'kopi', 'spesial', 'asia', 'kopi']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19239</v>
+        <v>32076</v>
       </c>
       <c r="C6" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rt kriting terima kasih untuk yang hatinya berbahagia melihat persembahan kami ini semoga senang dan keadaan menjadi lebih mudah ba</t>
+          <t>rt april di cafe stadion ajah bekasi gabungan materi lama amp baru kapasitas penonton sesuai protokol kesehat</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['rt', 'kriting', 'terima', 'kasih', 'untuk', 'yang', 'hatinya', 'berbahagia', 'melihat', 'persembahan', 'kami', 'ini', 'semoga', 'senang', 'dan', 'keadaan', 'menjadi', 'lebih', 'mudah', 'ba']</t>
+          <t>['rt', 'april', 'di', 'cafe', 'stadion', 'ajah', 'bekasi', 'gabungan', 'materi', 'lama', 'amp', 'baru', 'kapasitas', 'penonton', 'sesuai', 'protokol', 'kesehat']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'april', 'di', 'cafe', 'stadion', 'saja', 'bekasi', 'gabungan', 'materi', 'lama', 'amp', 'baru', 'kapasitas', 'penonton', 'sesuai', 'protokol', 'kesehat']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['kriting', 'terima', 'kasih', 'hatinya', 'berbahagia', 'persembahan', 'semoga', 'senang', 'mudah', 'ba']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['kriting', 'terima', 'kasih', 'hati', 'bahagia', 'sembah', 'moga', 'senang', 'mudah', 'ba']</t>
+          <t>['april', 'cafe', 'stadion', 'bekasi', 'gabungan', 'materi', 'kapasitas', 'penonton', 'sesuai', 'protokol', 'kesehat']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['april', 'cafe', 'stadion', 'bekas', 'gabung', 'materi', 'kapasitas', 'tonton', 'sesuai', 'protokol', 'sehat']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19240</v>
+        <v>32077</v>
       </c>
       <c r="C7" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt kriting silahkan yang butuh hiburan tengah malam siapa tau mau ketawaketawa santai poor ba eps cinta ada apa nih </t>
+          <t>rt hari ini toko libur besok buka di kemanggisan dan juga di shopee</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['rt', 'kriting', 'silahkan', 'yang', 'butuh', 'hiburan', 'tengah', 'malam', 'siapa', 'tau', 'mau', 'ketawaketawa', 'santai', 'poor', 'ba', 'eps', 'cinta', 'ada', 'apa', 'nih']</t>
+          <t>['rt', 'hari', 'ini', 'toko', 'libur', 'besok', 'buka', 'di', 'kemanggisan', 'dan', 'juga', 'di', 'shopee']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'hari', 'ini', 'toko', 'libur', 'besok', 'buka', 'di', 'kemanggisan', 'dan', 'juga', 'di', 'shopee']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['kriting', 'silahkan', 'butuh', 'hiburan', 'malam', 'ketawaketawa', 'santai', 'poor', 'ba', 'eps', 'cinta']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['kriting', 'silah', 'butuh', 'hibur', 'malam', 'ketawaketawa', 'santai', 'poor', 'ba', 'eps', 'cinta']</t>
+          <t>['toko', 'libur', 'besok', 'buka', 'kemanggisan', 'shopee']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['toko', 'libur', 'besok', 'buka', 'manggis', 'shopee']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19241</v>
+        <v>32078</v>
       </c>
       <c r="C8" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>kadang bernapas juga sih mas</t>
+          <t>pagi yang indah</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['kadang', 'bernapas', 'juga', 'sih', 'mas']</t>
+          <t>['pagi', 'yang', 'indah']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['pagi', 'yang', 'indah']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['kadang', 'bernapas', 'mas']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['kadang', 'napas', 'mas']</t>
+          <t>['pagi', 'indah']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['pagi', 'indah']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19242</v>
+        <v>32079</v>
       </c>
       <c r="C9" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ke indomaret atau alfamart mereka suka kalo ada yang tukar receh banyak</t>
+          <t>rt brata biar kayak orang di tiktok</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['ke', 'indomaret', 'atau', 'alfamart', 'mereka', 'suka', 'kalo', 'ada', 'yang', 'tukar', 'receh', 'banyak']</t>
+          <t>['rt', 'brata', 'biar', 'kayak', 'orang', 'di', 'tiktok']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'brata', 'biar', 'kayak', 'orang', 'di', 'tiktok']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['indomaret', 'alfamart', 'suka', 'tukar', 'receh']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['indomaret', 'alfamart', 'suka', 'tukar', 'receh']</t>
+          <t>['brata', 'kayak', 'orang', 'tiktok']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['brata', 'kayak', 'orang', 'tiktok']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19243</v>
+        <v>32080</v>
       </c>
       <c r="C10" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>sama sama bang sehat selalu</t>
+          <t>rt besok sore nih di youtube gw</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['sama', 'sama', 'bang', 'sehat', 'selalu']</t>
+          <t>['rt', 'besok', 'sore', 'nih', 'di', 'youtube', 'gw']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'besok', 'sore', 'nih', 'di', 'youtube', 'gue']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['bang', 'sehat']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['bang', 'sehat']</t>
+          <t>['besok', 'sore', 'youtube', 'gue']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['besok', 'sore', 'youtube', 'gue']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19244</v>
+        <v>32081</v>
       </c>
       <c r="C11" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>rt kriting</t>
+          <t>rt dengan mengucap bismillahirrahmanirrahim maka kuumumkan resmi bahwa penantianku untuk membuat stand up komedi spesial keja</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['rt', 'kriting']</t>
+          <t>['rt', 'dengan', 'mengucap', 'bismillahirrahmanirrahim', 'maka', 'kuumumkan', 'resmi', 'bahwa', 'penantianku', 'untuk', 'membuat', 'stand', 'up', 'komedi', 'spesial', 'keja']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'dengan', 'mengucap', 'bismillahirrahmanirrahim', 'maka', 'kuumumkan', 'resmi', 'bahwa', 'penantianku', 'untuk', 'membuat', 'stand', 'up', 'komedi', 'spesial', 'keja']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['kriting']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['kriting']</t>
+          <t>['mengucap', 'bismillahirrahmanirrahim', 'kuumumkan', 'resmi', 'penantianku', 'stand', 'up', 'komedi', 'spesial', 'keja']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['ucap', 'bismillahirrahmanirrahim', 'umum', 'resmi', 'nanti', 'stand', 'up', 'komedi', 'spesial', 'keja']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19245</v>
+        <v>32082</v>
       </c>
       <c r="C12" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>laksono baik mas jumpa di sana insyaallah</t>
+          <t>rt yuk yg di kantornya butuh event virtual</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['laksono', 'baik', 'mas', 'jumpa', 'di', 'sana', 'insyaallah']</t>
+          <t>['rt', 'yuk', 'yg', 'di', 'kantornya', 'butuh', 'event', 'virtual']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'yuk', 'yang', 'di', 'kantornya', 'butuh', 'event', 'virtual']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['laksono', 'mas', 'jumpa', 'insyaallah']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['laksono', 'mas', 'jumpa', 'insyaallah']</t>
+          <t>['yuk', 'kantornya', 'butuh', 'event', 'virtual']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['yuk', 'kantor', 'butuh', 'event', 'virtual']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19246</v>
+        <v>32083</v>
       </c>
       <c r="C13" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>wah saya baru tahu ada penyebar agama yang suruh potong pohon dalam hal gunduli hutan dan perusakan lingkungan</t>
+          <t>rt hayyyyy info harga dan pembelian offlineonline diupdate berkala</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['wah', 'saya', 'baru', 'tahu', 'ada', 'penyebar', 'agama', 'yang', 'suruh', 'potong', 'pohon', 'dalam', 'hal', 'gunduli', 'hutan', 'dan', 'perusakan', 'lingkungan']</t>
+          <t>['rt', 'hayyyyy', 'info', 'harga', 'dan', 'pembelian', 'offlineonline', 'diupdate', 'berkala']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'hayyyyy', 'info', 'harga', 'dan', 'pembelian', 'offlineonline', 'diupdate', 'berkala']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['penyebar', 'agama', 'suruh', 'potong', 'pohon', 'gunduli', 'hutan', 'perusakan', 'lingkungan']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['sebar', 'agama', 'suruh', 'potong', 'pohon', 'gundul', 'hutan', 'rusa', 'lingkung']</t>
+          <t>['hayyyyy', 'info', 'harga', 'pembelian', 'offlineonline', 'diupdate', 'berkala']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['hayyyyy', 'info', 'harga', 'beli', 'offlineonline', 'diupdate', 'kala']</t>
         </is>
       </c>
     </row>
@@ -907,30 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19247</v>
+        <v>32084</v>
       </c>
       <c r="C14" t="n">
-        <v>234</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>rt okay eps bersama dan jangan lupa akan ada special show april cosmo amar</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'okay', 'eps', 'bersama', 'dan', 'jangan', 'lupa', 'akan', 'ada', 'special', 'show', 'april', 'cosmo', 'amar']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'ok', 'episode', 'bersama', 'dan', 'jangan', 'lupa', 'akan', 'ada', 'spesial', 'show', 'april', 'cosmo', 'amar']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ok', 'episode', 'lupa', 'spesial', 'show', 'april', 'cosmo', 'amar']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['ok', 'episode', 'lupa', 'spesial', 'show', 'april', 'cosmo', 'amar']</t>
         </is>
       </c>
     </row>
@@ -939,34 +1013,35 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19248</v>
+        <v>32085</v>
       </c>
       <c r="C15" t="n">
-        <v>234</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>alhamdulillah masuk final</t>
-        </is>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'masuk', 'final']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'masuk', 'final']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'masuk', 'final']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -975,34 +1050,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19249</v>
+        <v>32086</v>
       </c>
       <c r="C16" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rt ballboys to ballers</t>
+          <t>rt kriting sedikit tentang ghosting</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt', 'ballboys', 'to', 'ballers']</t>
+          <t>['rt', 'kriting', 'sedikit', 'tentang', 'ghosting']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'kriting', 'sedikit', 'tentang', 'ghosting']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['ballboys', 'to', 'ballers']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['ballboys', 'to', 'ballers']</t>
+          <t>['kriting', 'ghosting']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['kriting', 'ghosting']</t>
         </is>
       </c>
     </row>
@@ -1011,34 +1091,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19250</v>
+        <v>32087</v>
       </c>
       <c r="C17" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>saya tidak mengikuti liga inggris tapi sejak mengikuti video saya selalu menunggu mu tidak menang</t>
+          <t xml:space="preserve">rt sisain ye duitnye buat beli tiket nonton langsung via live </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['saya', 'tidak', 'mengikuti', 'liga', 'inggris', 'tapi', 'sejak', 'mengikuti', 'video', 'saya', 'selalu', 'menunggu', 'mu', 'tidak', 'menang']</t>
+          <t>['rt', 'sisain', 'ye', 'duitnye', 'buat', 'beli', 'tiket', 'nonton', 'langsung', 'via', 'live']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'sisakan', 'iya', 'duitnye', 'buat', 'beli', 'tiket', 'menonton', 'langsung', 'via', 'live']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['mengikuti', 'liga', 'inggris', 'mengikuti', 'video', 'menunggu', 'mu', 'menang']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['ikut', 'liga', 'inggris', 'ikut', 'video', 'tunggu', 'mu', 'menang']</t>
+          <t>['sisakan', 'iya', 'duitnye', 'beli', 'tiket', 'menonton', 'langsung', 'via', 'live']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['sisa', 'iya', 'duitnye', 'beli', 'tiket', 'tonton', 'langsung', 'via', 'live']</t>
         </is>
       </c>
     </row>
@@ -1047,34 +1132,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19251</v>
+        <v>32088</v>
       </c>
       <c r="C18" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>kalo napoli kalah juga seru nih</t>
+          <t>keren</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['kalo', 'napoli', 'kalah', 'juga', 'seru', 'nih']</t>
+          <t>['keren']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['keren']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['napoli', 'kalah', 'seru']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['napoli', 'kalah', 'seru']</t>
+          <t>['keren']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['keren']</t>
         </is>
       </c>
     </row>
@@ -1083,34 +1173,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19252</v>
+        <v>32089</v>
       </c>
       <c r="C19" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>rt volte come la prima volta adesso ancora una volta fino alla fine</t>
+          <t>duit buat ente udah ane titipin ke</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['rt', 'volte', 'come', 'la', 'prima', 'volta', 'adesso', 'ancora', 'una', 'volta', 'fino', 'alla', 'fine']</t>
+          <t>['duit', 'buat', 'ente', 'udah', 'ane', 'titipin', 'ke']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['duit', 'buat', 'kamu', 'sudah', 'saya', 'dititipkan', 'ke']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['volte', 'come', 'la', 'prima', 'volta', 'adesso', 'ancora', 'una', 'volta', 'fino', 'alla', 'fine']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['volte', 'come', 'la', 'prima', 'volta', 'adesso', 'ancora', 'una', 'volta', 'fino', 'alla', 'fine']</t>
+          <t>['duit', 'dititipkan']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['duit', 'titip']</t>
         </is>
       </c>
     </row>
@@ -1119,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19253</v>
+        <v>32090</v>
       </c>
       <c r="C20" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>berkah selalu bang</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['berkah', 'selalu', 'bang']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['berkah', 'selalu', 'bang']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['berkah', 'bang']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['berkah', 'bang']</t>
         </is>
       </c>
     </row>
@@ -1155,34 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19254</v>
+        <v>32091</v>
       </c>
       <c r="C21" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>rt vittoria importante contro un avversario difficile mancano ancora minuti giochiamola fino alla fine</t>
+          <t>hiburan saat ini adalah selalu ingat bahwa dalam kubur tidak ada pertanyaan soal piala champions</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['rt', 'vittoria', 'importante', 'contro', 'un', 'avversario', 'difficile', 'mancano', 'ancora', 'minuti', 'giochiamola', 'fino', 'alla', 'fine']</t>
+          <t>['hiburan', 'saat', 'ini', 'adalah', 'selalu', 'ingat', 'bahwa', 'dalam', 'kubur', 'tidak', 'ada', 'pertanyaan', 'soal', 'piala', 'champions']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['hiburan', 'saat', 'ini', 'adalah', 'selalu', 'ingat', 'bahwa', 'dalam', 'kubur', 'tidak', 'ada', 'pertanyaan', 'soal', 'piala', 'champions']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['vittoria', 'importante', 'contro', 'un', 'avversario', 'difficile', 'mancano', 'ancora', 'minuti', 'giochiamola', 'fino', 'alla', 'fine']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['vittoria', 'importante', 'contro', 'un', 'avversario', 'difficile', 'mancano', 'ancora', 'minuti', 'giochiamola', 'fino', 'alla', 'fine']</t>
+          <t>['hiburan', 'kubur', 'piala', 'champions']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['hibur', 'kubur', 'piala', 'champions']</t>
         </is>
       </c>
     </row>
@@ -1191,34 +1296,35 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19255</v>
+        <v>32092</v>
       </c>
       <c r="C22" t="n">
-        <v>234</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>kalau penciptaan nabi adam as anda bilang delusi dan pembodohan maka biarlah saya menjadi orang bodoh yang percaya</t>
-        </is>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['kalau', 'penciptaan', 'nabi', 'adam', 'as', 'anda', 'bilang', 'delusi', 'dan', 'pembodohan', 'maka', 'biarlah', 'saya', 'menjadi', 'orang', 'bodoh', 'yang', 'percaya']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['penciptaan', 'nabi', 'adam', 'as', 'delusi', 'pembodohan', 'biarlah', 'orang', 'bodoh', 'percaya']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['cipta', 'nabi', 'adam', 'as', 'delusi', 'bodoh', 'biar', 'orang', 'bodoh', 'percaya']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1227,34 +1333,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19256</v>
+        <v>32093</v>
       </c>
       <c r="C23" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>andai saja abu janda meyakini hakikat penciptaan nabi adam as dia tidak akan melihat manusia sebagai proses evolus</t>
+          <t>rt andbams dion kriting mas ainur ngejelasin lebih mudah</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['andai', 'saja', 'abu', 'janda', 'meyakini', 'hakikat', 'penciptaan', 'nabi', 'adam', 'as', 'dia', 'tidak', 'akan', 'melihat', 'manusia', 'sebagai', 'proses', 'evolus']</t>
+          <t>['rt', 'andbams', 'dion', 'kriting', 'mas', 'ainur', 'ngejelasin', 'lebih', 'mudah']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'andbams', 'dion', 'kriting', 'mas', 'ainur', 'ngejelasin', 'lebih', 'mudah']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['andai', 'abu', 'janda', 'hakikat', 'penciptaan', 'nabi', 'adam', 'as', 'manusia', 'proses', 'evolus']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['andai', 'abu', 'janda', 'hakikat', 'cipta', 'nabi', 'adam', 'as', 'manusia', 'proses', 'evolus']</t>
+          <t>['andbams', 'dion', 'kriting', 'mas', 'ainur', 'ngejelasin', 'mudah']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['andbams', 'dion', 'kriting', 'mas', 'ainur', 'ngejelasin', 'mudah']</t>
         </is>
       </c>
     </row>
@@ -1263,34 +1374,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19257</v>
+        <v>32094</v>
       </c>
       <c r="C24" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>poor ba eps sistem tanam paksa sudah tayang</t>
+          <t>cc dion kriting</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['poor', 'ba', 'eps', 'sistem', 'tanam', 'paksa', 'sudah', 'tayang']</t>
+          <t>['cc', 'dion', 'kriting']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['cc', 'dion', 'kriting']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['poor', 'ba', 'eps', 'sistem', 'tanam', 'paksa', 'tayang']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['poor', 'ba', 'eps', 'sistem', 'tanam', 'paksa', 'tayang']</t>
+          <t>['cc', 'dion', 'kriting']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['cc', 'dion', 'kriting']</t>
         </is>
       </c>
     </row>
@@ -1299,34 +1415,35 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19258</v>
+        <v>32095</v>
       </c>
       <c r="C25" t="n">
-        <v>234</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>rt rekening wakaf bri bsm an sahabat yatim pedalaman sertakan kode di akhir nomi</t>
-        </is>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['rt', 'rekening', 'wakaf', 'bri', 'bsm', 'an', 'sahabat', 'yatim', 'pedalaman', 'sertakan', 'kode', 'di', 'akhir', 'nomi']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['rekening', 'wakaf', 'bri', 'bsm', 'an', 'sahabat', 'yatim', 'pedalaman', 'sertakan', 'kode', 'nomi']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['rekening', 'wakaf', 'bri', 'bsm', 'an', 'sahabat', 'yatim', 'dalam', 'serta', 'kode', 'nomi']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1335,34 +1452,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19259</v>
+        <v>32096</v>
       </c>
       <c r="C26" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>rt akun besar mau nggak mau bantui saya untuk support program pembangunan musholla di</t>
+          <t>niat beli mobil jadi buka ponpes nih bro</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['rt', 'akun', 'besar', 'mau', 'nggak', 'mau', 'bantui', 'saya', 'untuk', 'support', 'program', 'pembangunan', 'musholla', 'di']</t>
+          <t>['niat', 'beli', 'mobil', 'jadi', 'buka', 'ponpes', 'nih', 'bro']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['niat', 'beli', 'mobil', 'jadi', 'buka', 'pondok, pesantren', 'nih', 'bro']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['akun', 'nggak', 'bantui', 'support', 'program', 'pembangunan', 'musholla']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['akun', 'nggak', 'bantu', 'support', 'program', 'bangun', 'musholla']</t>
+          <t>['niat', 'beli', 'mobil', 'buka', 'pondok, pesantren', 'bro']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['niat', 'beli', 'mobil', 'buka', 'pondok pesantren', 'bro']</t>
         </is>
       </c>
     </row>
@@ -1371,34 +1493,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19260</v>
+        <v>32097</v>
       </c>
       <c r="C27" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>rt kriting mas uki tolong kasih tau orang itu kami melanesian adalah manusia yang utuh jiwa dan raganya kalau orang itu sudah bi</t>
+          <t>rt marshel selamat pagi ada sedikit hiburan untuk mu nih</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['rt', 'kriting', 'mas', 'uki', 'tolong', 'kasih', 'tau', 'orang', 'itu', 'kami', 'melanesian', 'adalah', 'manusia', 'yang', 'utuh', 'jiwa', 'dan', 'raganya', 'kalau', 'orang', 'itu', 'sudah', 'bi']</t>
+          <t>['rt', 'marshel', 'selamat', 'pagi', 'ada', 'sedikit', 'hiburan', 'untuk', 'mu', 'nih']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
+          <t>['rt', 'marshel', 'selamat', 'pagi', 'ada', 'sedikit', 'hiburan', 'untuk', 'mu', 'nih']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['kriting', 'mas', 'uki', 'tolong', 'kasih', 'orang', 'melanesian', 'manusia', 'utuh', 'jiwa', 'raganya', 'orang', 'bi']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['kriting', 'mas', 'uki', 'tolong', 'kasih', 'orang', 'melanesian', 'manusia', 'utuh', 'jiwa', 'raga', 'orang', 'bi']</t>
+          <t>['marshel', 'selamat', 'pagi', 'hiburan', 'mu']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['marshel', 'selamat', 'pagi', 'hibur', 'mu']</t>
         </is>
       </c>
     </row>
@@ -1407,34 +1534,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19261</v>
+        <v>32098</v>
       </c>
       <c r="C28" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rt halo jujur kaget saya dapat surat begini dari anda lebih kaget lagi baca poin keberatannya saya kan revi</t>
+          <t>semangat selalu li kalo butuh teman buat ngobrol nomorku masih ada kan sehatsehat selalu</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['rt', 'halo', 'jujur', 'kaget', 'saya', 'dapat', 'surat', 'begini', 'dari', 'anda', 'lebih', 'kaget', 'lagi', 'baca', 'poin', 'keberatannya', 'saya', 'kan', 'revi']</t>
+          <t>['semangat', 'selalu', 'li', 'kalo', 'butuh', 'teman', 'buat', 'ngobrol', 'nomorku', 'masih', 'ada', 'kan', 'sehatsehat', 'selalu']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['semangat', 'selalu', 'li', 'kalau', 'butuh', 'teman', 'buat', 'mengobrol', 'nomorku', 'masih', 'ada', 'kan', 'sehatsehat', 'selalu']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['halo', 'jujur', 'kaget', 'surat', 'kaget', 'baca', 'poin', 'keberatannya', 'revi']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['halo', 'jujur', 'kaget', 'surat', 'kaget', 'baca', 'poin', 'berat', 'revi']</t>
+          <t>['semangat', 'li', 'butuh', 'teman', 'mengobrol', 'nomorku', 'sehatsehat']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['semangat', 'li', 'butuh', 'teman', 'obrol', 'nomor', 'sehatsehat']</t>
         </is>
       </c>
     </row>
@@ -1443,34 +1575,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19262</v>
+        <v>32099</v>
       </c>
       <c r="C29" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>aduh lucu banget ini</t>
+          <t>belum nonton lagi lagi sibuk kerokin istri</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['aduh', 'lucu', 'banget', 'ini']</t>
+          <t>['belum', 'nonton', 'lagi', 'lagi', 'sibuk', 'kerokin', 'istri']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['belum', 'menonton', 'lagi', 'lagi', 'sibuk', 'kerokin', 'istri']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['aduh', 'lucu', 'banget']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['aduh', 'lucu', 'banget']</t>
+          <t>['menonton', 'sibuk', 'kerokin', 'istri']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['tonton', 'sibuk', 'kerokin', 'istri']</t>
         </is>
       </c>
     </row>
@@ -1479,34 +1616,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19263</v>
+        <v>32100</v>
       </c>
       <c r="C30" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>langsung ke yewen</t>
+          <t>dia kayak ngerti ngerti aja orang ngomong rispek</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['langsung', 'ke', 'yewen']</t>
+          <t>['dia', 'kayak', 'ngerti', 'ngerti', 'aja', 'orang', 'ngomong', 'rispek']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['dia', 'kayak', 'mengerti', 'mengerti', 'saja', 'orang', 'berbicara', 'rispek']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['langsung', 'yewen']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['langsung', 'yewen']</t>
+          <t>['kayak', 'mengerti', 'mengerti', 'orang', 'berbicara', 'rispek']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['kayak', 'erti', 'erti', 'orang', 'bicara', 'rispek']</t>
         </is>
       </c>
     </row>
@@ -1515,34 +1657,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19264</v>
+        <v>32101</v>
       </c>
       <c r="C31" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>butuh gombal dengan berbagai kata kunci</t>
+          <t>rt uwenak suarane pace ini memang kalo urusan merdu seng ada lawan bosss</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['butuh', 'gombal', 'dengan', 'berbagai', 'kata', 'kunci']</t>
+          <t>['rt', 'uwenak', 'suarane', 'pace', 'ini', 'memang', 'kalo', 'urusan', 'merdu', 'seng', 'ada', 'lawan', 'bosss']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'uwenak', 'suarane', 'pace', 'ini', 'memang', 'kalau', 'urusan', 'merdu', 'seng', 'ada', 'lawan', 'bosss']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['butuh', 'gombal', 'kunci']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['butuh', 'gombal', 'kunci']</t>
+          <t>['uwenak', 'suarane', 'pace', 'urusan', 'merdu', 'seng', 'lawan', 'bosss']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['uwenak', 'suarane', 'pace', 'urus', 'merdu', 'seng', 'lawan', 'bosss']</t>
         </is>
       </c>
     </row>
@@ -1551,34 +1698,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19265</v>
+        <v>32102</v>
       </c>
       <c r="C32" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>proses suting terhambat karena masih main futsal ya</t>
+          <t>rt tgl februari silam ulama legendaris ini lahir bernama lengkap haji abdul malik karim amrullah ia dikenal sbg buya</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['proses', 'suting', 'terhambat', 'karena', 'masih', 'main', 'futsal', 'ya']</t>
+          <t>['rt', 'tgl', 'februari', 'silam', 'ulama', 'legendaris', 'ini', 'lahir', 'bernama', 'lengkap', 'haji', 'abdul', 'malik', 'karim', 'amrullah', 'ia', 'dikenal', 'sbg', 'buya']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'tanggal', 'februari', 'silam', 'ulama', 'legendaris', 'ini', 'lahir', 'bernama', 'lengkap', 'haji', 'abdul', 'malik', 'karim', 'amrullah', 'ia', 'dikenal', 'sebagai', 'buya']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['proses', 'suting', 'terhambat', 'main', 'futsal']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['proses', 'suting', 'hambat', 'main', 'futsal']</t>
+          <t>['tanggal', 'februari', 'silam', 'ulama', 'legendaris', 'lahir', 'bernama', 'lengkap', 'haji', 'abdul', 'malik', 'karim', 'amrullah', 'dikenal', 'buya']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['tanggal', 'februari', 'silam', 'ulama', 'legendaris', 'lahir', 'nama', 'lengkap', 'haji', 'abdul', 'malik', 'karim', 'amrullah', 'kenal', 'buya']</t>
         </is>
       </c>
     </row>
@@ -1587,34 +1739,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19266</v>
+        <v>32103</v>
       </c>
       <c r="C33" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>masih malas main haha</t>
+          <t>rt kriting terima kasih untuk yang hatinya berbahagia melihat persembahan kami ini semoga senang dan keadaan menjadi lebih mudah ba</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['masih', 'malas', 'main', 'haha']</t>
+          <t>['rt', 'kriting', 'terima', 'kasih', 'untuk', 'yang', 'hatinya', 'berbahagia', 'melihat', 'persembahan', 'kami', 'ini', 'semoga', 'senang', 'dan', 'keadaan', 'menjadi', 'lebih', 'mudah', 'ba']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'kriting', 'terima', 'kasih', 'untuk', 'yang', 'hatinya', 'berbahagia', 'melihat', 'persembahan', 'kami', 'ini', 'semoga', 'senang', 'dan', 'keadaan', 'menjadi', 'lebih', 'mudah', 'ba']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['malas', 'main', 'haha']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['malas', 'main', 'haha']</t>
+          <t>['kriting', 'terima', 'kasih', 'hatinya', 'berbahagia', 'persembahan', 'semoga', 'senang', 'mudah', 'ba']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['kriting', 'terima', 'kasih', 'hati', 'bahagia', 'sembah', 'moga', 'senang', 'mudah', 'ba']</t>
         </is>
       </c>
     </row>
@@ -1623,30 +1780,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19267</v>
+        <v>32104</v>
       </c>
       <c r="C34" t="n">
-        <v>234</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rt kriting silahkan yang butuh hiburan tengah malam siapa tau mau ketawaketawa santai poor ba eps cinta ada apa nih </t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'kriting', 'silahkan', 'yang', 'butuh', 'hiburan', 'tengah', 'malam', 'siapa', 'tau', 'mau', 'ketawaketawa', 'santai', 'poor', 'ba', 'eps', 'cinta', 'ada', 'apa', 'nih']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'kriting', 'silakan', 'yang', 'butuh', 'hiburan', 'tengah', 'malam', 'siapa', 'tau', 'mau', 'ketawaketawa', 'santai', 'poor', 'ba', 'episode', 'cinta', 'ada', 'apa', 'nih']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kriting', 'silakan', 'butuh', 'hiburan', 'malam', 'ketawaketawa', 'santai', 'poor', 'ba', 'episode', 'cinta']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['kriting', 'sila', 'butuh', 'hibur', 'malam', 'ketawaketawa', 'santai', 'poor', 'ba', 'episode', 'cinta']</t>
         </is>
       </c>
     </row>
@@ -1655,34 +1821,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19268</v>
+        <v>32105</v>
       </c>
       <c r="C35" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> kali ini bikin tidak semangat nonton</t>
+          <t>kadang bernapas juga sih mas</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['kali', 'ini', 'bikin', 'tidak', 'semangat', 'nonton']</t>
+          <t>['kadang', 'bernapas', 'juga', 'sih', 'mas']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['kadang', 'bernapas', 'juga', 'sih', 'mas']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['kali', 'semangat', 'nonton']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['kali', 'semangat', 'nonton']</t>
+          <t>['kadang', 'bernapas', 'mas']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['kadang', 'napas', 'mas']</t>
         </is>
       </c>
     </row>
@@ -1691,34 +1862,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19269</v>
+        <v>32106</v>
       </c>
       <c r="C36" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>wow</t>
+          <t>ke indomaret atau alfamart mereka suka kalo ada yang tukar receh banyak</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['wow']</t>
+          <t>['ke', 'indomaret', 'atau', 'alfamart', 'mereka', 'suka', 'kalo', 'ada', 'yang', 'tukar', 'receh', 'banyak']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['ke', 'indomaret', 'atau', 'alfamart', 'mereka', 'suka', 'kalau', 'ada', 'yang', 'tukar', 'receh', 'banyak']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['wow']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['wow']</t>
+          <t>['indomaret', 'alfamart', 'suka', 'tukar', 'receh']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['indomaret', 'alfamart', 'suka', 'tukar', 'receh']</t>
         </is>
       </c>
     </row>
@@ -1727,34 +1903,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19270</v>
+        <v>32107</v>
       </c>
       <c r="C37" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>pemabuk</t>
+          <t>sama sama bang sehat selalu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['pemabuk']</t>
+          <t>['sama', 'sama', 'bang', 'sehat', 'selalu']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['sama', 'sama', 'bang', 'sehat', 'selalu']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['pemabuk']</t>
+          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['mabuk']</t>
+          <t>['bang', 'sehat']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['bang', 'sehat']</t>
         </is>
       </c>
     </row>
@@ -1763,34 +1944,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19271</v>
+        <v>32108</v>
       </c>
       <c r="C38" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>saya tahu di sini tidak bisa swipe up tapi tetap bisa berdonasi kok link donasi</t>
+          <t>rt kriting</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['saya', 'tahu', 'di', 'sini', 'tidak', 'bisa', 'swipe', 'up', 'tapi', 'tetap', 'bisa', 'berdonasi', 'kok', 'link', 'donasi']</t>
+          <t>['rt', 'kriting']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'kriting']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['swipe', 'up', 'berdonasi', 'link', 'donasi']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['swipe', 'up', 'donasi', 'link', 'donasi']</t>
+          <t>['kriting']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['kriting']</t>
         </is>
       </c>
     </row>
@@ -1799,34 +1985,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19272</v>
+        <v>32109</v>
       </c>
       <c r="C39" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>rt buku nyai dasima ini menegaskan cara pandang khas kolonial bahwa orang miskin orang kampung itu sumber masalah en semua yg bu</t>
+          <t>laksono baik mas jumpa di sana insyaallah</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['rt', 'buku', 'nyai', 'dasima', 'ini', 'menegaskan', 'cara', 'pandang', 'khas', 'kolonial', 'bahwa', 'orang', 'miskin', 'orang', 'kampung', 'itu', 'sumber', 'masalah', 'en', 'semua', 'yg', 'bu']</t>
+          <t>['laksono', 'baik', 'mas', 'jumpa', 'di', 'sana', 'insyaallah']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
+          <t>['laksono', 'baik', 'mas', 'jumpa', 'di', 'sana', 'insyaallah']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['buku', 'nyai', 'dasima', 'pandang', 'khas', 'kolonial', 'orang', 'miskin', 'orang', 'kampung', 'sumber', 'en', 'bu']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['buku', 'nyai', 'dasima', 'pandang', 'khas', 'kolonial', 'orang', 'miskin', 'orang', 'kampung', 'sumber', 'en', 'bu']</t>
+          <t>['laksono', 'mas', 'jumpa', 'insyaallah']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['laksono', 'mas', 'jumpa', 'insyaallah']</t>
         </is>
       </c>
     </row>
@@ -1835,34 +2026,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19273</v>
+        <v>32110</v>
       </c>
       <c r="C40" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>kau nonton dulu videonya baru komen kalo jadi anak muhammadiyah jangan bikin ma</t>
+          <t>wah saya baru tahu ada penyebar agama yang suruh potong pohon dalam hal gunduli hutan dan perusakan lingkungan</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['kau', 'nonton', 'dulu', 'videonya', 'baru', 'komen', 'kalo', 'jadi', 'anak', 'muhammadiyah', 'jangan', 'bikin', 'ma']</t>
+          <t>['wah', 'saya', 'baru', 'tahu', 'ada', 'penyebar', 'agama', 'yang', 'suruh', 'potong', 'pohon', 'dalam', 'hal', 'gunduli', 'hutan', 'dan', 'perusakan', 'lingkungan']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['wah', 'saya', 'baru', 'tahu', 'ada', 'penyebar', 'agama', 'yang', 'suruh', 'potong', 'pohon', 'dalam', 'hal', 'gunduli', 'hutan', 'dan', 'perusakan', 'lingkungan']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['kau', 'nonton', 'videonya', 'komen', 'anak', 'muhammadiyah', 'ma']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['kau', 'nonton', 'video', 'komen', 'anak', 'muhammadiyah', 'ma']</t>
+          <t>['penyebar', 'agama', 'suruh', 'potong', 'pohon', 'gunduli', 'hutan', 'perusakan', 'lingkungan']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['sebar', 'agama', 'suruh', 'potong', 'pohon', 'gundul', 'hutan', 'rusa', 'lingkung']</t>
         </is>
       </c>
     </row>
@@ -1871,34 +2067,35 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19274</v>
+        <v>32111</v>
       </c>
       <c r="C41" t="n">
-        <v>234</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">rt tahun presiden baptis labuan bajo sbg daerah pariwisata super premium tak di pungkirikata super premium </t>
-        </is>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['rt', 'tahun', 'presiden', 'baptis', 'labuan', 'bajo', 'sbg', 'daerah', 'pariwisata', 'super', 'premium', 'tak', 'di', 'pungkirikata', 'super', 'premium']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['presiden', 'baptis', 'labuan', 'bajo', 'sbg', 'daerah', 'pariwisata', 'super', 'premium', 'pungkirikata', 'super', 'premium']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['presiden', 'baptis', 'labu', 'bajo', 'sbg', 'daerah', 'pariwisata', 'super', 'premium', 'pungkirikata', 'super', 'premium']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1907,34 +2104,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19275</v>
+        <v>32112</v>
       </c>
       <c r="C42" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>rt hai ayooo klik link kalsel sulbar sumbang rb juga gapapa kok kar</t>
+          <t>alhamdulillah masuk final</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['rt', 'hai', 'ayooo', 'klik', 'link', 'kalsel', 'sulbar', 'sumbang', 'rb', 'juga', 'gapapa', 'kok', 'kar']</t>
+          <t>['alhamdulillah', 'masuk', 'final']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['alhamdulillah', 'masuk', 'final']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['hai', 'ayooo', 'klik', 'link', 'kalsel', 'sulbar', 'sumbang', 'rb', 'gapapa', 'kar']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['hai', 'ayooo', 'klik', 'link', 'kalsel', 'sulbar', 'sumbang', 'rb', 'gapapa', 'kar']</t>
+          <t>['alhamdulillah', 'masuk', 'final']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'masuk', 'final']</t>
         </is>
       </c>
     </row>
@@ -1943,34 +2145,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19276</v>
+        <v>32113</v>
       </c>
       <c r="C43" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vs berhasil bunuh core musuh dan tidak mati sampai tower terakhir hancur pantaslah orang bilang dia alien</t>
+          <t>rt ballboys to ballers</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['vs', 'berhasil', 'bunuh', 'core', 'musuh', 'dan', 'tidak', 'mati', 'sampai', 'tower', 'terakhir', 'hancur', 'pantaslah', 'orang', 'bilang', 'dia', 'alien']</t>
+          <t>['rt', 'ballboys', 'to', 'ballers']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'ballboys', 'to', 'ballers']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['vs', 'berhasil', 'bunuh', 'core', 'musuh', 'mati', 'tower', 'hancur', 'pantaslah', 'orang', 'alien']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['vs', 'hasil', 'bunuh', 'core', 'musuh', 'mati', 'tower', 'hancur', 'pantas', 'orang', 'alien']</t>
+          <t>['ballboys', 'to', 'ballers']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['ballboys', 'to', 'ballers']</t>
         </is>
       </c>
     </row>
@@ -1979,34 +2186,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19277</v>
+        <v>32114</v>
       </c>
       <c r="C44" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>nonton lagi rrq vs evos sg match lemon dengan lapulapu sungguh bar bar sekali</t>
+          <t>saya tidak mengikuti liga inggris tapi sejak mengikuti video saya selalu menunggu mu tidak menang</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['nonton', 'lagi', 'rrq', 'vs', 'evos', 'sg', 'match', 'lemon', 'dengan', 'lapulapu', 'sungguh', 'bar', 'bar', 'sekali']</t>
+          <t>['saya', 'tidak', 'mengikuti', 'liga', 'inggris', 'tapi', 'sejak', 'mengikuti', 'video', 'saya', 'selalu', 'menunggu', 'mu', 'tidak', 'menang']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['saya', 'tidak', 'mengikuti', 'liga', 'inggris', 'tapi', 'sejak', 'mengikuti', 'video', 'saya', 'selalu', 'menunggu', 'mu', 'tidak', 'menang']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['nonton', 'rrq', 'vs', 'evos', 'sg', 'match', 'lemon', 'lapulapu', 'sungguh', 'bar', 'bar']</t>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['nonton', 'rrq', 'vs', 'evos', 'sg', 'match', 'lemon', 'lapulapu', 'sungguh', 'bar', 'bar']</t>
+          <t>['mengikuti', 'liga', 'inggris', 'mengikuti', 'video', 'menunggu', 'mu', 'menang']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['ikut', 'liga', 'inggris', 'ikut', 'video', 'tunggu', 'mu', 'menang']</t>
         </is>
       </c>
     </row>
@@ -2015,34 +2227,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19278</v>
+        <v>32115</v>
       </c>
       <c r="C45" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>karana gak ada ahmad maungzy</t>
+          <t>kalo napoli kalah juga seru nih</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['karana', 'gak', 'ada', 'ahmad', 'maungzy']</t>
+          <t>['kalo', 'napoli', 'kalah', 'juga', 'seru', 'nih']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kalau', 'napoli', 'kalah', 'juga', 'seru', 'nih']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['karana', 'ahmad', 'maungzy']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['karana', 'ahmad', 'maungzy']</t>
+          <t>['napoli', 'kalah', 'seru']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['napoli', 'kalah', 'seru']</t>
         </is>
       </c>
     </row>
@@ -2051,34 +2268,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19279</v>
+        <v>32116</v>
       </c>
       <c r="C46" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>any team from indonesia</t>
+          <t>rt volte come la prima volta adesso ancora una volta fino alla fine</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['any', 'team', 'from', 'indonesia']</t>
+          <t>['rt', 'volte', 'come', 'la', 'prima', 'volta', 'adesso', 'ancora', 'una', 'volta', 'fino', 'alla', 'fine']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'volte', 'come', 'lah', 'prima', 'volta', 'adesso', 'ancora', 'una', 'volta', 'fino', 'alla', 'fine']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['any', 'team', 'from', 'indonesia']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['any', 'team', 'from', 'indonesia']</t>
+          <t>['volte', 'come', 'prima', 'volta', 'adesso', 'ancora', 'una', 'volta', 'fino', 'alla', 'fine']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['volte', 'come', 'prima', 'volta', 'adesso', 'ancora', 'una', 'volta', 'fino', 'alla', 'fine']</t>
         </is>
       </c>
     </row>
@@ -2087,34 +2309,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19280</v>
+        <v>32117</v>
       </c>
       <c r="C47" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>uncle abdel is too busy  cant handle his schedule anymore anytime is indosiar birthday lmfao</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['uncle', 'abdel', 'is', 'too', 'busy', 'cant', 'handle', 'his', 'schedule', 'anymore', 'anytime', 'is', 'indosiar', 'birthday', 'lmfao']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['uncle', 'abdel', 'is', 'too', 'busy', 'cant', 'handle', 'his', 'schedule', 'anymore', 'anytime', 'is', 'indosiar', 'birthday', 'lmfao']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['uncle', 'abdel', 'is', 'too', 'busy', 'cant', 'handle', 'his', 'schedule', 'anymore', 'anytime', 'is', 'indosiar', 'birthday', 'lmfao']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2123,34 +2350,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19281</v>
+        <v>32118</v>
       </c>
       <c r="C48" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>mari kita lanjutkan menonton  world championship</t>
+          <t>rt vittoria importante contro un avversario difficile mancano ancora minuti giochiamola fino alla fine</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['mari', 'kita', 'lanjutkan', 'menonton', 'world', 'championship']</t>
+          <t>['rt', 'vittoria', 'importante', 'contro', 'un', 'avversario', 'difficile', 'mancano', 'ancora', 'minuti', 'giochiamola', 'fino', 'alla', 'fine']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'vittoria', 'importante', 'contro', 'ujian, nasional', 'avversario', 'difficile', 'mancano', 'ancora', 'minuti', 'giochiamola', 'fino', 'alla', 'fine']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['mari', 'lanjutkan', 'menonton', 'world', 'championship']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['mari', 'lanjut', 'tonton', 'world', 'championship']</t>
+          <t>['vittoria', 'importante', 'contro', 'ujian, nasional', 'avversario', 'difficile', 'mancano', 'ancora', 'minuti', 'giochiamola', 'fino', 'alla', 'fine']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['vittoria', 'importante', 'contro', 'uji nasional', 'avversario', 'difficile', 'mancano', 'ancora', 'minuti', 'giochiamola', 'fino', 'alla', 'fine']</t>
         </is>
       </c>
     </row>
@@ -2159,34 +2391,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19282</v>
+        <v>32119</v>
       </c>
       <c r="C49" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>for uncle</t>
+          <t>kalau penciptaan nabi adam as anda bilang delusi dan pembodohan maka biarlah saya menjadi orang bodoh yang percaya</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['for', 'uncle']</t>
+          <t>['kalau', 'penciptaan', 'nabi', 'adam', 'as', 'anda', 'bilang', 'delusi', 'dan', 'pembodohan', 'maka', 'biarlah', 'saya', 'menjadi', 'orang', 'bodoh', 'yang', 'percaya']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kalau', 'penciptaan', 'nabi', 'adam', 'as', 'anda', 'bilang', 'delusi', 'dan', 'pembodohan', 'maka', 'biarlah', 'saya', 'menjadi', 'orang', 'bodoh', 'yang', 'percaya']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['for', 'uncle']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['for', 'uncle']</t>
+          <t>['penciptaan', 'nabi', 'adam', 'as', 'delusi', 'pembodohan', 'biarlah', 'orang', 'bodoh', 'percaya']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['cipta', 'nabi', 'adam', 'as', 'delusi', 'bodoh', 'biar', 'orang', 'bodoh', 'percaya']</t>
         </is>
       </c>
     </row>
@@ -2195,34 +2432,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19283</v>
+        <v>32120</v>
       </c>
       <c r="C50" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>thank you uncle im satisfy</t>
+          <t>andai saja abu janda meyakini hakikat penciptaan nabi adam as dia tidak akan melihat manusia sebagai proses evolus</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['thank', 'you', 'uncle', 'im', 'satisfy']</t>
+          <t>['andai', 'saja', 'abu', 'janda', 'meyakini', 'hakikat', 'penciptaan', 'nabi', 'adam', 'as', 'dia', 'tidak', 'akan', 'melihat', 'manusia', 'sebagai', 'proses', 'evolus']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['andai', 'saja', 'abu', 'janda', 'meyakini', 'hakikat', 'penciptaan', 'nabi', 'adam', 'as', 'dia', 'tidak', 'akan', 'melihat', 'manusia', 'sebagai', 'proses', 'evolus']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['thank', 'you', 'uncle', 'im', 'satisfy']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['thank', 'you', 'uncle', 'im', 'satisfy']</t>
+          <t>['andai', 'abu', 'janda', 'hakikat', 'penciptaan', 'nabi', 'adam', 'as', 'manusia', 'proses', 'evolus']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['andai', 'abu', 'janda', 'hakikat', 'cipta', 'nabi', 'adam', 'as', 'manusia', 'proses', 'evolus']</t>
         </is>
       </c>
     </row>
@@ -2231,34 +2473,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19284</v>
+        <v>32121</v>
       </c>
       <c r="C51" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>nothing uncle just lay in my bed of roses now its rain which is in january not november</t>
+          <t>poor ba eps sistem tanam paksa sudah tayang</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['nothing', 'uncle', 'just', 'lay', 'in', 'my', 'bed', 'of', 'roses', 'now', 'its', 'rain', 'which', 'is', 'in', 'january', 'not', 'november']</t>
+          <t>['poor', 'ba', 'eps', 'sistem', 'tanam', 'paksa', 'sudah', 'tayang']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['poor', 'ba', 'episode', 'sistem', 'tanam', 'paksa', 'sudah', 'tayang']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['nothing', 'uncle', 'just', 'lay', 'in', 'my', 'bed', 'of', 'roses', 'now', 'its', 'rain', 'which', 'is', 'in', 'january', 'not', 'november']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['nothing', 'uncle', 'just', 'lay', 'in', 'my', 'bed', 'of', 'roses', 'now', 'its', 'rain', 'which', 'is', 'in', 'january', 'not', 'november']</t>
+          <t>['poor', 'ba', 'episode', 'sistem', 'tanam', 'paksa', 'tayang']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['poor', 'ba', 'episode', 'sistem', 'tanam', 'paksa', 'tayang']</t>
         </is>
       </c>
     </row>
@@ -2267,34 +2514,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19285</v>
+        <v>32122</v>
       </c>
       <c r="C52" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>hai uncle im latishas friend from rawadenok</t>
+          <t>rt rekening wakaf bri bsm an sahabat yatim pedalaman sertakan kode di akhir nomi</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['hai', 'uncle', 'im', 'latishas', 'friend', 'from', 'rawadenok']</t>
+          <t>['rt', 'rekening', 'wakaf', 'bri', 'bsm', 'an', 'sahabat', 'yatim', 'pedalaman', 'sertakan', 'kode', 'di', 'akhir', 'nomi']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'rekening', 'wakaf', 'bank, rakyat, indonesia', 'bsm', 'an', 'sahabat', 'yatim', 'pedalaman', 'sertakan', 'kode', 'di', 'akhir', 'nomi']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['hai', 'uncle', 'im', 'latishas', 'friend', 'from', 'rawadenok']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['hai', 'uncle', 'im', 'latishas', 'friend', 'from', 'rawadenok']</t>
+          <t>['rekening', 'wakaf', 'bank, rakyat, indonesia', 'bsm', 'an', 'sahabat', 'yatim', 'pedalaman', 'sertakan', 'kode', 'nomi']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['rekening', 'wakaf', 'bank rakyat indonesia', 'bsm', 'an', 'sahabat', 'yatim', 'dalam', 'serta', 'kode', 'nomi']</t>
         </is>
       </c>
     </row>
@@ -2303,34 +2555,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>19286</v>
+        <v>32123</v>
       </c>
       <c r="C53" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>rt ini bukunya anak balita aja bilang begini loh</t>
+          <t>rt akun besar mau nggak mau bantui saya untuk support program pembangunan musholla di</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'ini', 'bukunya', 'anak', 'balita', 'aja', 'bilang', 'begini', 'loh']</t>
+          <t>['rt', 'akun', 'besar', 'mau', 'nggak', 'mau', 'bantui', 'saya', 'untuk', 'support', 'program', 'pembangunan', 'musholla', 'di']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'akun', 'besar', 'mau', 'enggak', 'mau', 'bantui', 'saya', 'untuk', 'support', 'program', 'pembangunan', 'musala', 'di']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['bukunya', 'anak', 'balita']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['buku', 'anak', 'balita']</t>
+          <t>['akun', 'bantui', 'support', 'program', 'pembangunan', 'musala']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['akun', 'bantu', 'support', 'program', 'bangun', 'musala']</t>
         </is>
       </c>
     </row>
@@ -2339,34 +2596,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19287</v>
+        <v>32124</v>
       </c>
       <c r="C54" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>oke latisha defisit tektok ya</t>
+          <t>rt kriting mas uki tolong kasih tau orang itu kami melanesian adalah manusia yang utuh jiwa dan raganya kalau orang itu sudah bi</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['oke', 'latisha', 'defisit', 'tektok', 'ya']</t>
+          <t>['rt', 'kriting', 'mas', 'uki', 'tolong', 'kasih', 'tau', 'orang', 'itu', 'kami', 'melanesian', 'adalah', 'manusia', 'yang', 'utuh', 'jiwa', 'dan', 'raganya', 'kalau', 'orang', 'itu', 'sudah', 'bi']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'kriting', 'mas', 'uki', 'tolong', 'kasih', 'tau', 'orang', 'itu', 'kami', 'melanesian', 'adalah', 'manusia', 'yang', 'utuh', 'jiwa', 'dan', 'raganya', 'kalau', 'orang', 'itu', 'sudah', 'bi']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['oke', 'latisha', 'defisit', 'tektok']</t>
+          <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['oke', 'latisha', 'defisit', 'tektok']</t>
+          <t>['kriting', 'mas', 'uki', 'tolong', 'kasih', 'orang', 'melanesian', 'manusia', 'utuh', 'jiwa', 'raganya', 'orang', 'bi']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['kriting', 'mas', 'uki', 'tolong', 'kasih', 'orang', 'melanesian', 'manusia', 'utuh', 'jiwa', 'raga', 'orang', 'bi']</t>
         </is>
       </c>
     </row>
@@ -2375,34 +2637,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19288</v>
+        <v>32125</v>
       </c>
       <c r="C55" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>helo latisha is that me on your profil pic</t>
+          <t>rt halo jujur kaget saya dapat surat begini dari anda lebih kaget lagi baca poin keberatannya saya kan revi</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['helo', 'latisha', 'is', 'that', 'me', 'on', 'your', 'profil', 'pic']</t>
+          <t>['rt', 'halo', 'jujur', 'kaget', 'saya', 'dapat', 'surat', 'begini', 'dari', 'anda', 'lebih', 'kaget', 'lagi', 'baca', 'poin', 'keberatannya', 'saya', 'kan', 'revi']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'halo', 'jujur', 'kaget', 'saya', 'dapat', 'surat', 'begini', 'dari', 'anda', 'lebih', 'kaget', 'lagi', 'baca', 'poin', 'keberatannya', 'saya', 'kan', 'revi']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['helo', 'latisha', 'is', 'that', 'me', 'on', 'your', 'profil', 'pic']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['helo', 'latisha', 'is', 'that', 'me', 'on', 'your', 'profil', 'pic']</t>
+          <t>['halo', 'jujur', 'kaget', 'surat', 'kaget', 'baca', 'poin', 'keberatannya', 'revi']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['halo', 'jujur', 'kaget', 'surat', 'kaget', 'baca', 'poin', 'berat', 'revi']</t>
         </is>
       </c>
     </row>
@@ -2411,34 +2678,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19289</v>
+        <v>32126</v>
       </c>
       <c r="C56" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>kriting ayo cing gak usah ajak mamat</t>
+          <t>aduh lucu banget ini</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['kriting', 'ayo', 'cing', 'gak', 'usah', 'ajak', 'mamat']</t>
+          <t>['aduh', 'lucu', 'banget', 'ini']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['aduh', 'lucu', 'banget', 'ini']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['kriting', 'ayo', 'cing', 'ajak', 'mamat']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['kriting', 'ayo', 'cing', 'ajak', 'mamat']</t>
+          <t>['aduh', 'lucu', 'banget']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['aduh', 'lucu', 'banget']</t>
         </is>
       </c>
     </row>
@@ -2447,34 +2719,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19290</v>
+        <v>32127</v>
       </c>
       <c r="C57" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>id selamat</t>
+          <t>langsung ke yewen</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['id', 'selamat']</t>
+          <t>['langsung', 'ke', 'yewen']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['langsung', 'ke', 'yewen']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['id', 'selamat']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['id', 'selamat']</t>
+          <t>['langsung', 'yewen']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['langsung', 'yewen']</t>
         </is>
       </c>
     </row>
@@ -2483,34 +2760,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19291</v>
+        <v>32128</v>
       </c>
       <c r="C58" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>rt kriting jangan cuma bisa bicara politik lima tahun sekali sini kami beri pendidikan politik poor ba eps demokrasi te</t>
+          <t>butuh gombal dengan berbagai kata kunci</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['rt', 'kriting', 'jangan', 'cuma', 'bisa', 'bicara', 'politik', 'lima', 'tahun', 'sekali', 'sini', 'kami', 'beri', 'pendidikan', 'politik', 'poor', 'ba', 'eps', 'demokrasi', 'te']</t>
+          <t>['butuh', 'gombal', 'dengan', 'berbagai', 'kata', 'kunci']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['butuh', 'gombal', 'dengan', 'berbagai', 'kata', 'kunci']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['kriting', 'bicara', 'politik', 'pendidikan', 'politik', 'poor', 'ba', 'eps', 'demokrasi', 'te']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['kriting', 'bicara', 'politik', 'didik', 'politik', 'poor', 'ba', 'eps', 'demokrasi', 'te']</t>
+          <t>['butuh', 'gombal', 'kunci']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['butuh', 'gombal', 'kunci']</t>
         </is>
       </c>
     </row>
@@ -2519,34 +2801,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19292</v>
+        <v>32129</v>
       </c>
       <c r="C59" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>kriting makasih pao</t>
+          <t>proses suting terhambat karena masih main futsal ya</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['kriting', 'makasih', 'pao']</t>
+          <t>['proses', 'suting', 'terhambat', 'karena', 'masih', 'main', 'futsal', 'ya']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['proses', 'suting', 'terhambat', 'karena', 'masih', 'main', 'futsal', 'ya']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['kriting', 'makasih', 'pao']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['kriting', 'makasih', 'pao']</t>
+          <t>['proses', 'suting', 'terhambat', 'main', 'futsal']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['proses', 'suting', 'hambat', 'main', 'futsal']</t>
         </is>
       </c>
     </row>
@@ -2555,34 +2842,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19293</v>
+        <v>32130</v>
       </c>
       <c r="C60" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>rt yuk nyawer buat donasi</t>
+          <t>masih malas main haha</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['rt', 'yuk', 'nyawer', 'buat', 'donasi']</t>
+          <t>['masih', 'malas', 'main', 'haha']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['masih', 'malas', 'main', 'haha']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['yuk', 'nyawer', 'donasi']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['yuk', 'nyawer', 'donasi']</t>
+          <t>['malas', 'main', 'haha']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['malas', 'main', 'haha']</t>
         </is>
       </c>
     </row>
@@ -2591,34 +2883,35 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19294</v>
+        <v>32131</v>
       </c>
       <c r="C61" t="n">
-        <v>234</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>rt kriting ini ada yang baru untuk asupan komedi kawan sekalian poor ba eps demokrasi terpimpin</t>
-        </is>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['rt', 'kriting', 'ini', 'ada', 'yang', 'baru', 'untuk', 'asupan', 'komedi', 'kawan', 'sekalian', 'poor', 'ba', 'eps', 'demokrasi', 'terpimpin']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['kriting', 'asupan', 'komedi', 'kawan', 'poor', 'ba', 'eps', 'demokrasi', 'terpimpin']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['kriting', 'asupan', 'komedi', 'kawan', 'poor', 'ba', 'eps', 'demokrasi', 'pimpin']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2627,34 +2920,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19295</v>
+        <v>32132</v>
       </c>
       <c r="C62" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>nontonnya di mana jo</t>
+          <t xml:space="preserve"> kali ini bikin tidak semangat nonton</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['nontonnya', 'di', 'mana', 'jo']</t>
+          <t>['kali', 'ini', 'bikin', 'tidak', 'semangat', 'nonton']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['kali', 'ini', 'bikin', 'tidak', 'semangat', 'menonton']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['nontonnya', 'jo']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['nontonnya', 'jo']</t>
+          <t>['kali', 'semangat', 'menonton']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['kali', 'semangat', 'tonton']</t>
         </is>
       </c>
     </row>
@@ -2663,34 +2961,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19296</v>
+        <v>32133</v>
       </c>
       <c r="C63" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>nah su macam ke pangeran kuwait</t>
+          <t>wow</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['nah', 'su', 'macam', 'ke', 'pangeran', 'kuwait']</t>
+          <t>['wow']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['wah']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['su', 'pangeran', 'kuwait']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['su', 'pangeran', 'kuwait']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2699,34 +3002,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19297</v>
+        <v>32134</v>
       </c>
       <c r="C64" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rt cerita soal juventus dan di channel cing</t>
+          <t>pemabuk</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['rt', 'cerita', 'soal', 'juventus', 'dan', 'di', 'channel', 'cing']</t>
+          <t>['pemabuk']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['pemabuk']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['cerita', 'juventus', 'channel', 'cing']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['cerita', 'juventus', 'channel', 'cing']</t>
+          <t>['pemabuk']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['mabuk']</t>
         </is>
       </c>
     </row>
@@ -2735,34 +3043,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>19298</v>
+        <v>32135</v>
       </c>
       <c r="C65" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>film apa tuh</t>
+          <t>saya tahu di sini tidak bisa swipe up tapi tetap bisa berdonasi kok link donasi</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['film', 'apa', 'tuh']</t>
+          <t>['saya', 'tahu', 'di', 'sini', 'tidak', 'bisa', 'swipe', 'up', 'tapi', 'tetap', 'bisa', 'berdonasi', 'kok', 'link', 'donasi']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['saya', 'tahu', 'di', 'sini', 'tidak', 'bisa', 'swipe', 'up', 'tapi', 'tetap', 'bisa', 'berdonasi', 'kok', 'link', 'donasi']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['film']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['film']</t>
+          <t>['swipe', 'up', 'berdonasi', 'link', 'donasi']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['swipe', 'up', 'donasi', 'link', 'donasi']</t>
         </is>
       </c>
     </row>
@@ -2771,34 +3084,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19299</v>
+        <v>32136</v>
       </c>
       <c r="C66" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>rt buku nyai dasima ini menegaskan cara pandang khas kolonial bahwa orang miskin orang kampung itu sumber masalah en semua yg bu</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['rt', 'buku', 'nyai', 'dasima', 'ini', 'menegaskan', 'cara', 'pandang', 'khas', 'kolonial', 'bahwa', 'orang', 'miskin', 'orang', 'kampung', 'itu', 'sumber', 'masalah', 'en', 'semua', 'yg', 'bu']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'buku', 'nyai', 'dasima', 'ini', 'menegaskan', 'cara', 'pandang', 'khas', 'kolonial', 'bahwa', 'orang', 'miskin', 'orang', 'kampung', 'itu', 'sumber', 'masalah', 'dan', 'semua', 'yang', 'bu']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['buku', 'nyai', 'dasima', 'pandang', 'khas', 'kolonial', 'orang', 'miskin', 'orang', 'kampung', 'sumber', 'bu']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['buku', 'nyai', 'dasima', 'pandang', 'khas', 'kolonial', 'orang', 'miskin', 'orang', 'kampung', 'sumber', 'bu']</t>
         </is>
       </c>
     </row>
@@ -2807,34 +3125,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19300</v>
+        <v>32137</v>
       </c>
       <c r="C67" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>rt kalimantan selatan is my hometown its been days amp both the media amp government acted as if nothing happened here dont just</t>
+          <t>kau nonton dulu videonya baru komen kalo jadi anak muhammadiyah jangan bikin ma</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'kalimantan', 'selatan', 'is', 'my', 'hometown', 'its', 'been', 'days', 'amp', 'both', 'the', 'media', 'amp', 'government', 'acted', 'as', 'if', 'nothing', 'happened', 'here', 'dont', 'just']</t>
+          <t>['kau', 'nonton', 'dulu', 'videonya', 'baru', 'komen', 'kalo', 'jadi', 'anak', 'muhammadiyah', 'jangan', 'bikin', 'ma']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 23 outcomes&gt;</t>
+          <t>['kamu', 'menonton', 'dulu', 'videonya', 'baru', 'komen', 'kalau', 'jadi', 'anak', 'muhammadiyah', 'jangan', 'bikin', 'sama']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['kalimantan', 'selatan', 'is', 'my', 'hometown', 'its', 'been', 'days', 'both', 'the', 'media', 'government', 'acted', 'as', 'if', 'nothing', 'happened', 'here', 'dont', 'just']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['kalimantan', 'selatan', 'is', 'my', 'hometown', 'its', 'been', 'days', 'both', 'the', 'media', 'government', 'acted', 'as', 'if', 'nothing', 'happened', 'here', 'dont', 'just']</t>
+          <t>['menonton', 'videonya', 'komen', 'anak', 'muhammadiyah']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['tonton', 'video', 'komen', 'anak', 'muhammadiyah']</t>
         </is>
       </c>
     </row>
@@ -2843,34 +3166,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19301</v>
+        <v>32138</v>
       </c>
       <c r="C68" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>rt untuk urusan ekonomi perut bumi kalimantan kami sll di koyak dan dikeruk alamnya utk memenuhi kebutuhan negeri ini dan utk memp</t>
+          <t xml:space="preserve">rt tahun presiden baptis labuan bajo sbg daerah pariwisata super premium tak di pungkirikata super premium </t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['rt', 'untuk', 'urusan', 'ekonomi', 'perut', 'bumi', 'kalimantan', 'kami', 'sll', 'di', 'koyak', 'dan', 'dikeruk', 'alamnya', 'utk', 'memenuhi', 'kebutuhan', 'negeri', 'ini', 'dan', 'utk', 'memp']</t>
+          <t>['rt', 'tahun', 'presiden', 'baptis', 'labuan', 'bajo', 'sbg', 'daerah', 'pariwisata', 'super', 'premium', 'tak', 'di', 'pungkirikata', 'super', 'premium']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
+          <t>['rt', 'tahun', 'presiden', 'baptis', 'labuan', 'bajo', 'sebagai', 'daerah', 'pariwisata', 'super', 'premium', 'tak', 'di', 'pungkirikata', 'super', 'premium']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['urusan', 'ekonomi', 'perut', 'bumi', 'kalimantan', 'sll', 'koyak', 'dikeruk', 'alamnya', 'memenuhi', 'kebutuhan', 'negeri', 'memp']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['urus', 'ekonomi', 'perut', 'bumi', 'kalimantan', 'sll', 'koyak', 'keruk', 'alam', 'penuh', 'butuh', 'negeri', 'memp']</t>
+          <t>['presiden', 'baptis', 'labuan', 'bajo', 'daerah', 'pariwisata', 'super', 'premium', 'pungkirikata', 'super', 'premium']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['presiden', 'baptis', 'labu', 'bajo', 'daerah', 'pariwisata', 'super', 'premium', 'pungkirikata', 'super', 'premium']</t>
         </is>
       </c>
     </row>
@@ -2879,34 +3207,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19302</v>
+        <v>32139</v>
       </c>
       <c r="C69" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ih mantaapp</t>
+          <t>rt hai ayooo klik link kalsel sulbar sumbang rb juga gapapa kok kar</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['ih', 'mantaapp']</t>
+          <t>['rt', 'hai', 'ayooo', 'klik', 'link', 'kalsel', 'sulbar', 'sumbang', 'rb', 'juga', 'gapapa', 'kok', 'kar']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'hai', 'ayo', 'klik', 'link', 'kalsel', 'sulbar', 'sumbang', 'ribu', 'juga', 'tidak, apa, apa', 'kok', 'kar']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['ih', 'mantaapp']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['ih', 'mantaapp']</t>
+          <t>['hai', 'ayo', 'klik', 'link', 'kalsel', 'sulbar', 'sumbang', 'ribu', 'tidak, apa, apa', 'kar']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['hai', 'ayo', 'klik', 'link', 'kalsel', 'sulbar', 'sumbang', 'ribu', 'tidak apa apa', 'kar']</t>
         </is>
       </c>
     </row>
@@ -2915,34 +3248,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19303</v>
+        <v>32140</v>
       </c>
       <c r="C70" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>rt definisi ngakak bengek terjawab waktu di tampar keras sama</t>
+          <t>vs berhasil bunuh core musuh dan tidak mati sampai tower terakhir hancur pantaslah orang bilang dia alien</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['rt', 'definisi', 'ngakak', 'bengek', 'terjawab', 'waktu', 'di', 'tampar', 'keras', 'sama']</t>
+          <t>['vs', 'berhasil', 'bunuh', 'core', 'musuh', 'dan', 'tidak', 'mati', 'sampai', 'tower', 'terakhir', 'hancur', 'pantaslah', 'orang', 'bilang', 'dia', 'alien']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['lawan', 'berhasil', 'bunuh', 'core', 'musuh', 'dan', 'tidak', 'mati', 'sampai', 'tower', 'terakhir', 'hancur', 'pantaslah', 'orang', 'bilang', 'dia', 'alien']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['definisi', 'ngakak', 'bengek', 'terjawab', 'tampar', 'keras']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['definisi', 'ngakak', 'bengek', 'jawab', 'tampar', 'keras']</t>
+          <t>['lawan', 'berhasil', 'bunuh', 'core', 'musuh', 'mati', 'tower', 'hancur', 'pantaslah', 'orang', 'alien']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['lawan', 'hasil', 'bunuh', 'core', 'musuh', 'mati', 'tower', 'hancur', 'pantas', 'orang', 'alien']</t>
         </is>
       </c>
     </row>
@@ -2951,34 +3289,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>19304</v>
+        <v>32141</v>
       </c>
       <c r="C71" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>nonton lagi rrq vs evos sg match lemon dengan lapulapu sungguh bar bar sekali</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['nonton', 'lagi', 'rrq', 'vs', 'evos', 'sg', 'match', 'lemon', 'dengan', 'lapulapu', 'sungguh', 'bar', 'bar', 'sekali']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['menonton', 'lagi', 'rrq', 'lawan', 'evos', 'sg', 'match', 'lemon', 'dengan', 'lapulapu', 'sungguh', 'bar', 'bar', 'sekali']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['menonton', 'rrq', 'lawan', 'evos', 'sg', 'match', 'lemon', 'lapulapu', 'sungguh', 'bar', 'bar']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['tonton', 'rrq', 'lawan', 'evos', 'sg', 'match', 'lemon', 'lapulapu', 'sungguh', 'bar', 'bar']</t>
         </is>
       </c>
     </row>
@@ -2987,34 +3330,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>19305</v>
+        <v>32142</v>
       </c>
       <c r="C72" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>sungguh penuh dengan fitnah</t>
+          <t>karana gak ada ahmad maungzy</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['sungguh', 'penuh', 'dengan', 'fitnah']</t>
+          <t>['karana', 'gak', 'ada', 'ahmad', 'maungzy']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['karena', 'tidak', 'ada', 'ahmad', 'maungzy']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['sungguh', 'penuh', 'fitnah']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['sungguh', 'penuh', 'fitnah']</t>
+          <t>['ahmad', 'maungzy']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['ahmad', 'maungzy']</t>
         </is>
       </c>
     </row>
@@ -3023,34 +3371,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19306</v>
+        <v>32143</v>
       </c>
       <c r="C73" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rawadenok sekarang ada studio tattoo mantap banget emang kampung gua nih udah berasa kayak di legian</t>
+          <t>any team from indonesia</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rawadenok', 'sekarang', 'ada', 'studio', 'tattoo', 'mantap', 'banget', 'emang', 'kampung', 'gua', 'nih', 'udah', 'berasa', 'kayak', 'di', 'legian']</t>
+          <t>['any', 'team', 'from', 'indonesia']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['any', 'tim', 'from', 'indonesia']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['rawadenok', 'studio', 'tattoo', 'mantap', 'banget', 'emang', 'kampung', 'gua', 'udah', 'berasa', 'kayak', 'legian']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['rawadenok', 'studio', 'tattoo', 'mantap', 'banget', 'emang', 'kampung', 'gua', 'udah', 'asa', 'kayak', 'legi']</t>
+          <t>['any', 'tim', 'from', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['any', 'tim', 'from', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -3059,34 +3412,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19307</v>
+        <v>32144</v>
       </c>
       <c r="C74" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>juara suci capture id mabar yuk</t>
+          <t>uncle abdel is too busy  cant handle his schedule anymore anytime is indosiar birthday lmfao</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['juara', 'suci', 'capture', 'id', 'mabar', 'yuk']</t>
+          <t>['uncle', 'abdel', 'is', 'too', 'busy', 'cant', 'handle', 'his', 'schedule', 'anymore', 'anytime', 'is', 'indosiar', 'birthday', 'lmfao']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['paman', 'abdel', 'is', 'too', 'busy', 'cant', 'handle', 'his', 'schedule', 'anymore', 'anytime', 'is', 'indosiar', 'birthday', 'lmfao']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['juara', 'suci', 'capture', 'id', 'mabar', 'yuk']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['juara', 'suci', 'capture', 'id', 'mabar', 'yuk']</t>
+          <t>['paman', 'abdel', 'is', 'too', 'busy', 'cant', 'handle', 'his', 'schedule', 'anymore', 'anytime', 'is', 'indosiar', 'birthday', 'lmfao']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['paman', 'abdel', 'is', 'too', 'busy', 'cant', 'handle', 'his', 'schedule', 'anymore', 'anytime', 'is', 'indosiar', 'birthday', 'lmfao']</t>
         </is>
       </c>
     </row>
@@ -3095,34 +3453,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19308</v>
+        <v>32145</v>
       </c>
       <c r="C75" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>kita adalah cinta yang berjihad melawan trauma joko pinurbo</t>
+          <t>mari kita lanjutkan menonton  world championship</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['kita', 'adalah', 'cinta', 'yang', 'berjihad', 'melawan', 'trauma', 'joko', 'pinurbo']</t>
+          <t>['mari', 'kita', 'lanjutkan', 'menonton', 'world', 'championship']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['mari', 'kita', 'lanjutkan', 'menonton', 'world', 'championship']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['cinta', 'berjihad', 'melawan', 'trauma', 'joko', 'pinurbo']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['cinta', 'jihad', 'lawan', 'trauma', 'joko', 'pinurbo']</t>
+          <t>['mari', 'lanjutkan', 'menonton', 'world', 'championship']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['mari', 'lanjut', 'tonton', 'world', 'championship']</t>
         </is>
       </c>
     </row>
@@ -3131,34 +3494,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>19309</v>
+        <v>32146</v>
       </c>
       <c r="C76" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>dia jago dulu dia tusuk</t>
+          <t>for uncle</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['dia', 'jago', 'dulu', 'dia', 'tusuk']</t>
+          <t>['for', 'uncle']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
+          <t>['for', 'paman']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['jago', 'tusuk']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['jago', 'tusuk']</t>
+          <t>['for', 'paman']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['for', 'paman']</t>
         </is>
       </c>
     </row>
@@ -3167,34 +3535,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>19310</v>
+        <v>32147</v>
       </c>
       <c r="C77" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ganti nama jadi john yewen dulu</t>
+          <t>thank you uncle im satisfy</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['ganti', 'nama', 'jadi', 'john', 'yewen', 'dulu']</t>
+          <t>['thank', 'you', 'uncle', 'im', 'satisfy']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['terima, kasih', 'kamu', 'paman', 'im', 'satisfy']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['ganti', 'nama', 'john', 'yewen']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['ganti', 'nama', 'john', 'yewen']</t>
+          <t>['terima, kasih', 'paman', 'im', 'satisfy']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'paman', 'im', 'satisfy']</t>
         </is>
       </c>
     </row>
@@ -3203,34 +3576,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>19311</v>
+        <v>32148</v>
       </c>
       <c r="C78" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>arie kriting ini nikah tadi pagi malammalam malah sibuk chat di grup melanesian sudah fokus malam pertama dulu kami juga paham</t>
+          <t>nothing uncle just lay in my bed of roses now its rain which is in january not november</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['arie', 'kriting', 'ini', 'nikah', 'tadi', 'pagi', 'malammalam', 'malah', 'sibuk', 'chat', 'di', 'grup', 'melanesian', 'sudah', 'fokus', 'malam', 'pertama', 'dulu', 'kami', 'juga', 'paham']</t>
+          <t>['nothing', 'uncle', 'just', 'lay', 'in', 'my', 'bed', 'of', 'roses', 'now', 'its', 'rain', 'which', 'is', 'in', 'january', 'not', 'november']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['nothing', 'paman', 'just', 'lay', 'in', 'my', 'bed', 'of', 'roses', 'now', 'ini', 'rain', 'which', 'is', 'in', 'january', 'not', 'november']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['arie', 'kriting', 'nikah', 'pagi', 'malammalam', 'sibuk', 'chat', 'grup', 'melanesian', 'fokus', 'malam', 'paham']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['arie', 'kriting', 'nikah', 'pagi', 'malammalam', 'sibuk', 'chat', 'grup', 'melanesian', 'fokus', 'malam', 'paham']</t>
+          <t>['nothing', 'paman', 'just', 'lay', 'in', 'my', 'bed', 'of', 'roses', 'now', 'rain', 'which', 'is', 'in', 'january', 'not', 'november']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['nothing', 'paman', 'just', 'lay', 'in', 'my', 'bed', 'of', 'roses', 'now', 'rain', 'which', 'is', 'in', 'january', 'not', 'november']</t>
         </is>
       </c>
     </row>
@@ -3239,30 +3617,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>19312</v>
+        <v>32149</v>
       </c>
       <c r="C79" t="n">
-        <v>234</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>hai uncle im latishas friend from rawadenok</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hai', 'uncle', 'im', 'latishas', 'friend', 'from', 'rawadenok']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['hai', 'paman', 'im', 'latishas', 'friend', 'from', 'rawadenok']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hai', 'paman', 'im', 'latishas', 'friend', 'from', 'rawadenok']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['hai', 'paman', 'im', 'latishas', 'friend', 'from', 'rawadenok']</t>
         </is>
       </c>
     </row>
@@ -3271,34 +3658,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>19313</v>
+        <v>32150</v>
       </c>
       <c r="C80" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>cc</t>
+          <t>rt ini bukunya anak balita aja bilang begini loh</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['cc']</t>
+          <t>['rt', 'ini', 'bukunya', 'anak', 'balita', 'aja', 'bilang', 'begini', 'loh']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'ini', 'bukunya', 'anak', 'balita', 'saja', 'bilang', 'begini', 'lah']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['cc']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['cc']</t>
+          <t>['bukunya', 'anak', 'balita']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['buku', 'anak', 'balita']</t>
         </is>
       </c>
     </row>
@@ -3307,34 +3699,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>19314</v>
+        <v>32151</v>
       </c>
       <c r="C81" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>titomardiyanto</t>
+          <t>oke latisha defisit tektok ya</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['titomardiyanto']</t>
+          <t>['oke', 'latisha', 'defisit', 'tektok', 'ya']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['oke', 'latisha', 'defisit', 'tektok', 'ya']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['titomardiyanto']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['titomardiyanto']</t>
+          <t>['oke', 'latisha', 'defisit', 'tektok']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['oke', 'latisha', 'defisit', 'tektok']</t>
         </is>
       </c>
     </row>
@@ -3343,34 +3740,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>19315</v>
+        <v>32152</v>
       </c>
       <c r="C82" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>disclaimer gak berlaku karena data yang digunakan tidak update ya kan disclaimernya memang menyangku</t>
+          <t>helo latisha is that me on your profil pic</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['disclaimer', 'gak', 'berlaku', 'karena', 'data', 'yang', 'digunakan', 'tidak', 'update', 'ya', 'kan', 'disclaimernya', 'memang', 'menyangku']</t>
+          <t>['helo', 'latisha', 'is', 'that', 'me', 'on', 'your', 'profil', 'pic']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['halo', 'latisha', 'is', 'that', 'me', 'on', 'your', 'profil', 'pic']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['disclaimer', 'berlaku', 'data', 'update', 'disclaimernya', 'menyangku']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['disclaimer', 'laku', 'data', 'update', 'disclaimernya', 'nyang']</t>
+          <t>['halo', 'latisha', 'is', 'that', 'me', 'on', 'your', 'profil', 'pic']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['halo', 'latisha', 'is', 'that', 'me', 'on', 'your', 'profil', 'pic']</t>
         </is>
       </c>
     </row>
@@ -3379,34 +3781,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>19316</v>
+        <v>32153</v>
       </c>
       <c r="C83" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>kalau yang dimaksud video kapt vincent saya sudah nonton dan dia berulang kali bilang data di radar itu bisa sa</t>
+          <t>kriting ayo cing gak usah ajak mamat</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['kalau', 'yang', 'dimaksud', 'video', 'kapt', 'vincent', 'saya', 'sudah', 'nonton', 'dan', 'dia', 'berulang', 'kali', 'bilang', 'data', 'di', 'radar', 'itu', 'bisa', 'sa']</t>
+          <t>['kriting', 'ayo', 'cing', 'gak', 'usah', 'ajak', 'mamat']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['kriting', 'ayo', 'cing', 'tidak', 'usah', 'ajak', 'mamat']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['video', 'kapt', 'vincent', 'nonton', 'berulang', 'kali', 'data', 'radar', 'sa']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['video', 'kapt', 'vincent', 'nonton', 'ulang', 'kali', 'data', 'radar', 'sa']</t>
+          <t>['kriting', 'ayo', 'cing', 'ajak', 'mamat']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['kriting', 'ayo', 'cing', 'ajak', 'mamat']</t>
         </is>
       </c>
     </row>
@@ -3415,34 +3822,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>19317</v>
+        <v>32154</v>
       </c>
       <c r="C84" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>hmmm</t>
+          <t>id selamat</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['hmmm']</t>
+          <t>['id', 'selamat']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['id', 'selamat']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['hmmm']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['hmmm']</t>
+          <t>['id', 'selamat']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['id', 'selamat']</t>
         </is>
       </c>
     </row>
@@ -3451,34 +3863,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>19318</v>
+        <v>32155</v>
       </c>
       <c r="C85" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>hai orang sibuk</t>
+          <t>rt kriting jangan cuma bisa bicara politik lima tahun sekali sini kami beri pendidikan politik poor ba eps demokrasi te</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['hai', 'orang', 'sibuk']</t>
+          <t>['rt', 'kriting', 'jangan', 'cuma', 'bisa', 'bicara', 'politik', 'lima', 'tahun', 'sekali', 'sini', 'kami', 'beri', 'pendidikan', 'politik', 'poor', 'ba', 'eps', 'demokrasi', 'te']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'kriting', 'jangan', 'cuma', 'bisa', 'bicara', 'politik', 'lima', 'tahun', 'sekali', 'sini', 'kami', 'beri', 'pendidikan', 'politik', 'poor', 'ba', 'episode', 'demokrasi', 'te']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['hai', 'orang', 'sibuk']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['hai', 'orang', 'sibuk']</t>
+          <t>['kriting', 'bicara', 'politik', 'pendidikan', 'politik', 'poor', 'ba', 'episode', 'demokrasi', 'te']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['kriting', 'bicara', 'politik', 'didik', 'politik', 'poor', 'ba', 'episode', 'demokrasi', 'te']</t>
         </is>
       </c>
     </row>
@@ -3487,34 +3904,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>19319</v>
+        <v>32156</v>
       </c>
       <c r="C86" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>kalo di kupang rival erlangga adalah intan pariwara</t>
+          <t>kriting makasih pao</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['kalo', 'di', 'kupang', 'rival', 'erlangga', 'adalah', 'intan', 'pariwara']</t>
+          <t>['kriting', 'makasih', 'pao']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['kriting', 'terima, kasih', 'pao']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['kupang', 'rival', 'erlangga', 'intan', 'pariwara']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['kupang', 'rival', 'erlangga', 'intan', 'pariwara']</t>
+          <t>['kriting', 'terima, kasih', 'pao']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['kriting', 'terima kasih', 'pao']</t>
         </is>
       </c>
     </row>
@@ -3523,30 +3945,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>19320</v>
+        <v>32157</v>
       </c>
       <c r="C87" t="n">
-        <v>234</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>rt yuk nyawer buat donasi</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'yuk', 'nyawer', 'buat', 'donasi']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'yuk', 'nyawer', 'buat', 'donasi']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['yuk', 'nyawer', 'donasi']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['yuk', 'nyawer', 'donasi']</t>
         </is>
       </c>
     </row>
@@ -3555,34 +3986,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>19321</v>
+        <v>32158</v>
       </c>
       <c r="C88" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>rt dengan bangga official trailer film nussa segera di bioskop amin amin aminn</t>
+          <t>rt kriting ini ada yang baru untuk asupan komedi kawan sekalian poor ba eps demokrasi terpimpin</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['rt', 'dengan', 'bangga', 'official', 'trailer', 'film', 'nussa', 'segera', 'di', 'bioskop', 'amin', 'amin', 'aminn']</t>
+          <t>['rt', 'kriting', 'ini', 'ada', 'yang', 'baru', 'untuk', 'asupan', 'komedi', 'kawan', 'sekalian', 'poor', 'ba', 'eps', 'demokrasi', 'terpimpin']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'kriting', 'ini', 'ada', 'yang', 'baru', 'untuk', 'asupan', 'komedi', 'kawan', 'sekalian', 'poor', 'ba', 'episode', 'demokrasi', 'terpimpin']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['bangga', 'official', 'trailer', 'film', 'nussa', 'bioskop', 'amin', 'amin', 'aminn']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['bangga', 'official', 'trailer', 'film', 'nussa', 'bioskop', 'amin', 'amin', 'aminn']</t>
+          <t>['kriting', 'asupan', 'komedi', 'kawan', 'poor', 'ba', 'episode', 'demokrasi', 'terpimpin']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['kriting', 'asupan', 'komedi', 'kawan', 'poor', 'ba', 'episode', 'demokrasi', 'pimpin']</t>
         </is>
       </c>
     </row>
@@ -3591,34 +4027,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>19322</v>
+        <v>32159</v>
       </c>
       <c r="C89" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>orang mabok susah dikontrol pip</t>
+          <t>nontonnya di mana jo</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['orang', 'mabok', 'susah', 'dikontrol', 'pip']</t>
+          <t>['nontonnya', 'di', 'mana', 'jo']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['nontonnya', 'di', 'mana', 'jo']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['orang', 'mabok', 'susah', 'dikontrol', 'pip']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['orang', 'mabok', 'susah', 'kontrol', 'pip']</t>
+          <t>['nontonnya', 'jo']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['nontonnya', 'jo']</t>
         </is>
       </c>
     </row>
@@ -3627,34 +4068,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>19323</v>
+        <v>32160</v>
       </c>
       <c r="C90" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>yewen</t>
+          <t>nah su macam ke pangeran kuwait</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['yewen']</t>
+          <t>['nah', 'su', 'macam', 'ke', 'pangeran', 'kuwait']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['nah', 'su', 'macam', 'ke', 'pangeran', 'kuwait']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['yewen']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['yewen']</t>
+          <t>['su', 'pangeran', 'kuwait']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['su', 'pangeran', 'kuwait']</t>
         </is>
       </c>
     </row>
@@ -3663,34 +4109,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>19324</v>
+        <v>32161</v>
       </c>
       <c r="C91" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>masyuk</t>
+          <t>rt cerita soal juventus dan di channel cing</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['masyuk']</t>
+          <t>['rt', 'cerita', 'soal', 'juventus', 'dan', 'di', 'channel', 'cing']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'cerita', 'soal', 'juventus', 'dan', 'di', 'channel', 'cing']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['masyuk']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['masyuk']</t>
+          <t>['cerita', 'juventus', 'channel', 'cing']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['cerita', 'juventus', 'channel', 'cing']</t>
         </is>
       </c>
     </row>
@@ -3699,34 +4150,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19325</v>
+        <v>32162</v>
       </c>
       <c r="C92" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>tuh dzawin yang bangku kiri kosong</t>
+          <t>film apa tuh</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['tuh', 'dzawin', 'yang', 'bangku', 'kiri', 'kosong']</t>
+          <t>['film', 'apa', 'tuh']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['film', 'apa', 'itu']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['dzawin', 'bangku', 'kiri', 'kosong']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['dzawin', 'bangku', 'kiri', 'kosong']</t>
+          <t>['film']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['film']</t>
         </is>
       </c>
     </row>
@@ -3735,34 +4191,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>19326</v>
+        <v>32163</v>
       </c>
       <c r="C93" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>hmm</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['hmm']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['rt']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>['hmm']</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['hmm']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3771,34 +4232,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>19327</v>
+        <v>32164</v>
       </c>
       <c r="C94" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rt aku hanya ingin perpanjang sim</t>
+          <t>rt untuk urusan ekonomi perut bumi kalimantan kami sll di koyak dan dikeruk alamnya utk memenuhi kebutuhan negeri ini dan utk memp</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['rt', 'aku', 'hanya', 'ingin', 'perpanjang', 'sim']</t>
+          <t>['rt', 'untuk', 'urusan', 'ekonomi', 'perut', 'bumi', 'kalimantan', 'kami', 'sll', 'di', 'koyak', 'dan', 'dikeruk', 'alamnya', 'utk', 'memenuhi', 'kebutuhan', 'negeri', 'ini', 'dan', 'utk', 'memp']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'untuk', 'urusan', 'ekonomi', 'perut', 'bumi', 'kalimantan', 'kami', 'selalu', 'di', 'koyak', 'dan', 'dikeruk', 'alamnya', 'untuk', 'memenuhi', 'kebutuhan', 'negeri', 'ini', 'dan', 'untuk', 'memp']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['perpanjang', 'sim']</t>
+          <t>&lt;FreqDist with 19 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['panjang', 'sim']</t>
+          <t>['urusan', 'ekonomi', 'perut', 'bumi', 'kalimantan', 'koyak', 'dikeruk', 'alamnya', 'memenuhi', 'kebutuhan', 'negeri', 'memp']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['urus', 'ekonomi', 'perut', 'bumi', 'kalimantan', 'koyak', 'keruk', 'alam', 'penuh', 'butuh', 'negeri', 'memp']</t>
         </is>
       </c>
     </row>
@@ -3807,34 +4273,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>19328</v>
+        <v>32165</v>
       </c>
       <c r="C95" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>kopi pagi enak nih</t>
+          <t>ih mantaapp</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['kopi', 'pagi', 'enak', 'nih']</t>
+          <t>['ih', 'mantaapp']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['ih', 'mantap']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['kopi', 'pagi', 'enak']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['kopi', 'pagi', 'enak']</t>
+          <t>['ih', 'mantap']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['ih', 'mantap']</t>
         </is>
       </c>
     </row>
@@ -3843,34 +4314,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>19329</v>
+        <v>32166</v>
       </c>
       <c r="C96" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>terima kasih</t>
+          <t>rt definisi ngakak bengek terjawab waktu di tampar keras sama</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['terima', 'kasih']</t>
+          <t>['rt', 'definisi', 'ngakak', 'bengek', 'terjawab', 'waktu', 'di', 'tampar', 'keras', 'sama']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'definisi', 'tertawa', 'bengek', 'terjawab', 'waktu', 'di', 'tampar', 'keras', 'sama']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['terima', 'kasih']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['terima', 'kasih']</t>
+          <t>['definisi', 'tertawa', 'bengek', 'terjawab', 'tampar', 'keras']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['definisi', 'tertawa', 'bengek', 'jawab', 'tampar', 'keras']</t>
         </is>
       </c>
     </row>
@@ -3879,28 +4355,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>19330</v>
+        <v>32167</v>
       </c>
       <c r="C97" t="n">
-        <v>234</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>['rt']</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>['rt']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3911,34 +4396,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>19331</v>
+        <v>32168</v>
       </c>
       <c r="C98" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>kan udah gua jelasin waktu lu ke rumah</t>
+          <t>sungguh penuh dengan fitnah</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['kan', 'udah', 'gua', 'jelasin', 'waktu', 'lu', 'ke', 'rumah']</t>
+          <t>['sungguh', 'penuh', 'dengan', 'fitnah']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['sungguh', 'penuh', 'dengan', 'fitnah']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['udah', 'gua', 'jelasin', 'lu', 'rumah']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['udah', 'gua', 'jelasin', 'lu', 'rumah']</t>
+          <t>['sungguh', 'penuh', 'fitnah']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['sungguh', 'penuh', 'fitnah']</t>
         </is>
       </c>
     </row>
@@ -3947,34 +4437,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>19332</v>
+        <v>32169</v>
       </c>
       <c r="C99" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>rt ayo menangkangift awal tahun total puluhan juta rupiah dan kesempatan belajar tentang diplomasi secara langsung di luar ne</t>
+          <t>rawadenok sekarang ada studio tattoo mantap banget emang kampung gua nih udah berasa kayak di legian</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['rt', 'ayo', 'menangkangift', 'awal', 'tahun', 'total', 'puluhan', 'juta', 'rupiah', 'dan', 'kesempatan', 'belajar', 'tentang', 'diplomasi', 'secara', 'langsung', 'di', 'luar', 'ne']</t>
+          <t>['rawadenok', 'sekarang', 'ada', 'studio', 'tattoo', 'mantap', 'banget', 'emang', 'kampung', 'gua', 'nih', 'udah', 'berasa', 'kayak', 'di', 'legian']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rawadenok', 'sekarang', 'ada', 'studio', 'tato', 'mantap', 'banget', 'memang', 'kampung', 'gue', 'nih', 'sudah', 'berasa', 'kayak', 'di', 'legian']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['ayo', 'menangkangift', 'total', 'puluhan', 'juta', 'rupiah', 'kesempatan', 'belajar', 'diplomasi', 'langsung', 'ne']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['ayo', 'menangkangift', 'total', 'puluh', 'juta', 'rupiah', 'sempat', 'ajar', 'diplomasi', 'langsung', 'ne']</t>
+          <t>['rawadenok', 'studio', 'tato', 'mantap', 'banget', 'kampung', 'gue', 'berasa', 'kayak', 'legian']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['rawadenok', 'studio', 'tato', 'mantap', 'banget', 'kampung', 'gue', 'asa', 'kayak', 'legi']</t>
         </is>
       </c>
     </row>
@@ -3983,70 +4478,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>19333</v>
+        <v>32170</v>
       </c>
       <c r="C100" t="n">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>rt ngakak gaabis bang</t>
+          <t>juara suci capture id mabar yuk</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['rt', 'ngakak', 'gaabis', 'bang']</t>
+          <t>['juara', 'suci', 'capture', 'id', 'mabar', 'yuk']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['juara', 'suci', 'capture', 'id', 'main, bareng', 'yuk']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['ngakak', 'gaabis', 'bang']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['ngakak', 'gaabis', 'bang']</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>19334</v>
-      </c>
-      <c r="C101" t="n">
-        <v>234</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>teruci as ayo ikutan aku wes swab antigen</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>['teruci', 'as', 'ayo', 'ikutan', 'aku', 'wes', 'swab', 'antigen']</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>['teruci', 'as', 'ayo', 'ikutan', 'wes', 'swab', 'antigen']</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>['teruci', 'as', 'ayo', 'ikut', 'wes', 'swab', 'antigen']</t>
+          <t>['juara', 'suci', 'capture', 'id', 'main, bareng', 'yuk']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['juara', 'suci', 'capture', 'id', 'main bareng', 'yuk']</t>
         </is>
       </c>
     </row>
